--- a/data/trans_orig/P55S_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P55S_R-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3769</v>
+        <v>3645</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09328085852990674</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4347386518641005</v>
+        <v>0.4204651439552003</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4842</v>
+        <v>4856</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1201796835460422</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4727887728456507</v>
+        <v>0.4741108741430314</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6327</v>
+        <v>6015</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.10784882490646</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3345730186146672</v>
+        <v>0.3180547043775622</v>
       </c>
     </row>
     <row r="5">
@@ -862,7 +862,7 @@
         <v>7860</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4900</v>
+        <v>5024</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>8669</v>
@@ -871,7 +871,7 @@
         <v>0.9067191414700932</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5652613481359015</v>
+        <v>0.5795348560447996</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>9011</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5400</v>
+        <v>5386</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>10242</v>
@@ -892,7 +892,7 @@
         <v>0.8798203164539579</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5272112271543489</v>
+        <v>0.5258891258569687</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -904,7 +904,7 @@
         <v>16871</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>12584</v>
+        <v>12896</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>18911</v>
@@ -913,7 +913,7 @@
         <v>0.89215117509354</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6654269813853331</v>
+        <v>0.6819452956224378</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -1068,19 +1068,19 @@
         <v>3119</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>884</v>
+        <v>902</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7636</v>
+        <v>7543</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.137365781398746</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03891283062987453</v>
+        <v>0.03970782346750019</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3362707266775231</v>
+        <v>0.3321801180887217</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -1089,19 +1089,19 @@
         <v>3119</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>888</v>
+        <v>921</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8144</v>
+        <v>8082</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08000895788109894</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02278835624090804</v>
+        <v>0.02362062207363536</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2088671124896781</v>
+        <v>0.2072942138755803</v>
       </c>
     </row>
     <row r="10">
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6133</v>
+        <v>5604</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04692740029569212</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2700855959645244</v>
+        <v>0.2467676711110632</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4390</v>
+        <v>4518</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0273329526137852</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1125954216242924</v>
+        <v>0.1158681866606818</v>
       </c>
     </row>
     <row r="11">
@@ -1181,7 +1181,7 @@
         <v>14529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9859</v>
+        <v>8589</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>16280</v>
@@ -1190,7 +1190,7 @@
         <v>0.8924353796688151</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6055725125790971</v>
+        <v>0.5275938524580688</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1202,19 +1202,19 @@
         <v>17399</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12226</v>
+        <v>12967</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20686</v>
+        <v>20678</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7661744766305651</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5383877580928617</v>
+        <v>0.5710076367749284</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9109085482185058</v>
+        <v>0.9105700087303866</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -1223,19 +1223,19 @@
         <v>31928</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25416</v>
+        <v>25992</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36006</v>
+        <v>36038</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8188944790867938</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6518692041026665</v>
+        <v>0.6666549122392665</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9235016580639211</v>
+        <v>0.9243215250426392</v>
       </c>
     </row>
     <row r="12">
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6421</v>
+        <v>7691</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1075646203311848</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3944274874209029</v>
+        <v>0.4724061475419312</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5417</v>
+        <v>4703</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04953234167499667</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2385306919071292</v>
+        <v>0.2071165498147512</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8433</v>
+        <v>8833</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07376361041832205</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2162805301774334</v>
+        <v>0.2265523031477412</v>
       </c>
     </row>
     <row r="13">
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5639</v>
+        <v>5563</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1747872522130844</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5412096378077271</v>
+        <v>0.5339652418611263</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1419,19 +1419,19 @@
         <v>11017</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5936</v>
+        <v>6506</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17731</v>
+        <v>17773</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3082016527022405</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.166077698496903</v>
+        <v>0.1820251667239698</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4960551041675021</v>
+        <v>0.4972289859740019</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1440,19 +1440,19 @@
         <v>12838</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7208</v>
+        <v>7054</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19985</v>
+        <v>20183</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2780897491975255</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.156138217625506</v>
+        <v>0.1528038416364538</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4329174711609609</v>
+        <v>0.4371939968147748</v>
       </c>
     </row>
     <row r="15">
@@ -1516,7 +1516,7 @@
         <v>8598</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4780</v>
+        <v>4856</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>10419</v>
@@ -1525,7 +1525,7 @@
         <v>0.8252127477869156</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4587903621922728</v>
+        <v>0.4660347581388746</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -1537,19 +1537,19 @@
         <v>23813</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17383</v>
+        <v>17307</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29188</v>
+        <v>28615</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6662028903656181</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4862932654276375</v>
+        <v>0.4841846007335699</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8165540182798604</v>
+        <v>0.8005213019629295</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -1558,19 +1558,19 @@
         <v>32411</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25769</v>
+        <v>25286</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38271</v>
+        <v>38263</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7020917409350719</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5581960838699664</v>
+        <v>0.5477377443215722</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8290161236746568</v>
+        <v>0.8288545046246505</v>
       </c>
     </row>
     <row r="17">
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5001</v>
+        <v>5844</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02559545693214146</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1399003246242976</v>
+        <v>0.1635013651368373</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4887</v>
+        <v>3840</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01981850986740256</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1058694984799521</v>
+        <v>0.08317343020541415</v>
       </c>
     </row>
     <row r="18">
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3708</v>
+        <v>3508</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06203368520239492</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2769548982246984</v>
+        <v>0.2619748476851002</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1746,19 +1746,19 @@
         <v>5873</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2741</v>
+        <v>2531</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11562</v>
+        <v>10739</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1839886306063029</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08585886428213281</v>
+        <v>0.07930100558652856</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3622277759500507</v>
+        <v>0.3364421925212363</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1767,19 +1767,19 @@
         <v>6704</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3288</v>
+        <v>3057</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12304</v>
+        <v>12622</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1479477001073636</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07256230679496371</v>
+        <v>0.06747238956469939</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2715468757199386</v>
+        <v>0.2785627229129574</v>
       </c>
     </row>
     <row r="20">
@@ -1809,19 +1809,19 @@
         <v>4375</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10782</v>
+        <v>9489</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1370630141795245</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0346609231779292</v>
+        <v>0.03445271010405198</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3377704072247121</v>
+        <v>0.2972656204762964</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1830,19 +1830,19 @@
         <v>4375</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1097</v>
+        <v>1115</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9888</v>
+        <v>9938</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09655724746658993</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02420458644560535</v>
+        <v>0.02460510295074714</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2182390276512365</v>
+        <v>0.2193271948254445</v>
       </c>
     </row>
     <row r="21">
@@ -1859,7 +1859,7 @@
         <v>12559</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9682</v>
+        <v>9882</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>13390</v>
@@ -1868,7 +1868,7 @@
         <v>0.9379663147976051</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7230451017752991</v>
+        <v>0.7380251523149</v>
       </c>
       <c r="I21" s="6" t="n">
         <v>1</v>
@@ -1880,19 +1880,19 @@
         <v>17541</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11507</v>
+        <v>11974</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22866</v>
+        <v>22909</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5495451751675772</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3605082144464515</v>
+        <v>0.3751371120300129</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7163453597029279</v>
+        <v>0.7177007126934172</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>30</v>
@@ -1901,19 +1901,19 @@
         <v>30101</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>23115</v>
+        <v>23596</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>35915</v>
+        <v>35861</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6643339543463184</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5101445650196546</v>
+        <v>0.5207683173366272</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7926484769032256</v>
+        <v>0.7914610990447294</v>
       </c>
     </row>
     <row r="22">
@@ -1943,19 +1943,19 @@
         <v>4131</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1066</v>
+        <v>1084</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8557</v>
+        <v>8881</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1294031800465954</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03338150507575937</v>
+        <v>0.03395716309171579</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2680873006435486</v>
+        <v>0.2782337576427273</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -1964,19 +1964,19 @@
         <v>4131</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9479</v>
+        <v>9359</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09116109807972816</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02385790731225013</v>
+        <v>0.02375703215928581</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2091931860945467</v>
+        <v>0.2065481909331972</v>
       </c>
     </row>
     <row r="23">
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3896</v>
+        <v>3947</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1004553656369345</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4509247199575722</v>
+        <v>0.4568735289719674</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4506</v>
+        <v>5360</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07226410887464645</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2885240009761385</v>
+        <v>0.3432107830391238</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6340</v>
+        <v>6463</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08230464804963203</v>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2613760728973265</v>
+        <v>0.2664450442461759</v>
       </c>
     </row>
     <row r="25">
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4866</v>
+        <v>4923</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05972721669662531</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.311549703596799</v>
+        <v>0.315233382683713</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5347</v>
+        <v>4202</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03845489584509309</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2204382102045338</v>
+        <v>0.1732463699735543</v>
       </c>
     </row>
     <row r="26">
@@ -2202,7 +2202,7 @@
         <v>7771</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4743</v>
+        <v>4692</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>8639</v>
@@ -2211,7 +2211,7 @@
         <v>0.8995446343630655</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5490752800424278</v>
+        <v>0.5431264710280326</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2223,7 +2223,7 @@
         <v>13557</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9229</v>
+        <v>9311</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>15618</v>
@@ -2232,7 +2232,7 @@
         <v>0.8680086744287282</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.590937325255607</v>
+        <v>0.5961429961474446</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         <v>21328</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16550</v>
+        <v>16833</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23391</v>
+        <v>23360</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8792404561052749</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.682279831729409</v>
+        <v>0.6939382485191543</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9643150820380049</v>
+        <v>0.9630339221516626</v>
       </c>
     </row>
     <row r="27">
@@ -2395,19 +2395,19 @@
         <v>3803</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>949</v>
+        <v>1855</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7673</v>
+        <v>7642</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2116233341810945</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05280785596217152</v>
+        <v>0.1032431284350034</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4269867213854071</v>
+        <v>0.4252997269702473</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6806</v>
+        <v>6938</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07758633735465768</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2434713954939342</v>
+        <v>0.2481846673196477</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -2437,19 +2437,19 @@
         <v>5971</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2816</v>
+        <v>2835</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12313</v>
+        <v>11595</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1300327103920159</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0613114141405882</v>
+        <v>0.06172484807272889</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2681236269467045</v>
+        <v>0.2524815924438499</v>
       </c>
     </row>
     <row r="30">
@@ -2513,19 +2513,19 @@
         <v>14166</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10296</v>
+        <v>10327</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>17020</v>
+        <v>16114</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.7883766658189054</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5730132786145928</v>
+        <v>0.5747002730297527</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.9471921440378285</v>
+        <v>0.8967568715649966</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>21</v>
@@ -2534,19 +2534,19 @@
         <v>23658</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>18085</v>
+        <v>18187</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>26793</v>
+        <v>26939</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.8463071328747818</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.6469528174087381</v>
+        <v>0.6506106382981681</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.9584658629512105</v>
+        <v>0.9636781866506875</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>36</v>
@@ -2555,19 +2555,19 @@
         <v>37824</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>30672</v>
+        <v>32415</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>41927</v>
+        <v>41952</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.8236399368216274</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6678940815008528</v>
+        <v>0.70584519137873</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.9129893381853591</v>
+        <v>0.9135311533743242</v>
       </c>
     </row>
     <row r="32">
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6386</v>
+        <v>6942</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07610652977056052</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2284316865194956</v>
+        <v>0.2483466601081522</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6785</v>
+        <v>7341</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0463273527863567</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1477433010652915</v>
+        <v>0.1598638128857902</v>
       </c>
     </row>
     <row r="33">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5445</v>
+        <v>5449</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09454421779677506</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2909989545230441</v>
+        <v>0.2911864362678609</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>15</v>
@@ -2743,19 +2743,19 @@
         <v>15529</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>10063</v>
+        <v>9468</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>22539</v>
+        <v>22040</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3963961924491464</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2568716456082727</v>
+        <v>0.2416897652360057</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5753397908983665</v>
+        <v>0.5626142353640937</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>17</v>
@@ -2764,19 +2764,19 @@
         <v>17298</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>11071</v>
+        <v>10929</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>25363</v>
+        <v>24336</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2988197282076142</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1912555232741428</v>
+        <v>0.1888003405022539</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4381437214426908</v>
+        <v>0.4204075576919327</v>
       </c>
     </row>
     <row r="35">
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5537</v>
+        <v>4786</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02869285600977026</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.141344812747006</v>
+        <v>0.1221763630054961</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>6378</v>
+        <v>4673</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01941762287058302</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1101779424045488</v>
+        <v>0.08072983865058599</v>
       </c>
     </row>
     <row r="36">
@@ -2856,19 +2856,19 @@
         <v>14240</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10147</v>
+        <v>10184</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17002</v>
+        <v>16926</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7609786435995863</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5422378791163798</v>
+        <v>0.5442241206975948</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.9085892317887364</v>
+        <v>0.904499363429489</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>19</v>
@@ -2877,19 +2877,19 @@
         <v>20473</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>13651</v>
+        <v>13985</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>26487</v>
+        <v>26420</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5226014827987929</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.348452554235494</v>
+        <v>0.3569936650415151</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6761132131581435</v>
+        <v>0.6743987443902872</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>34</v>
@@ -2898,19 +2898,19 @@
         <v>34712</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>27461</v>
+        <v>27293</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>42387</v>
+        <v>41783</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5996591218407904</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4743966213828321</v>
+        <v>0.4714790014588758</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7322358658859279</v>
+        <v>0.7218033482780482</v>
       </c>
     </row>
     <row r="37">
@@ -2927,19 +2927,19 @@
         <v>2704</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>803</v>
+        <v>832</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6659</v>
+        <v>6576</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1444771386036386</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04293632904723997</v>
+        <v>0.04445601166438751</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3558595752617496</v>
+        <v>0.3513941516286498</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>7207</v>
+        <v>6379</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05230946874229049</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1839638808490326</v>
+        <v>0.1628239633643531</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5</v>
@@ -2969,19 +2969,19 @@
         <v>4753</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1783</v>
+        <v>1689</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>10599</v>
+        <v>10161</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08210352708101247</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03080065408584257</v>
+        <v>0.0291732455681591</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1830991267948352</v>
+        <v>0.1755272013035048</v>
       </c>
     </row>
     <row r="38">
@@ -3073,19 +3073,19 @@
         <v>5110</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1919</v>
+        <v>2126</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>10240</v>
+        <v>10853</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1572216495832995</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.05904083378050624</v>
+        <v>0.06543029187180859</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3150987111381496</v>
+        <v>0.3339388592507549</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>7</v>
@@ -3094,19 +3094,19 @@
         <v>8153</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>3437</v>
+        <v>3470</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>14806</v>
+        <v>14505</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1714162166246621</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.07226311762112494</v>
+        <v>0.07295018036908728</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3113085225375163</v>
+        <v>0.3049758176641367</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>12</v>
@@ -3115,19 +3115,19 @@
         <v>13262</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>7396</v>
+        <v>7291</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>21018</v>
+        <v>21859</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1656541170936631</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.09238722285872303</v>
+        <v>0.09106513592532516</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2625289109486454</v>
+        <v>0.2730309153795546</v>
       </c>
     </row>
     <row r="40">
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3440</v>
+        <v>4255</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0257136770470753</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.105843126088704</v>
+        <v>0.130920455593199</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -3165,19 +3165,19 @@
         <v>3265</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>927</v>
+        <v>902</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8996</v>
+        <v>8480</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06865600997332424</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01949069755731398</v>
+        <v>0.01896282795872364</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1891475807848356</v>
+        <v>0.1783083814935102</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -3186,19 +3186,19 @@
         <v>4101</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>948</v>
+        <v>1144</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>8842</v>
+        <v>9905</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.05122412947331934</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01184533201269075</v>
+        <v>0.01428805520815408</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1104465781492358</v>
+        <v>0.123722028207953</v>
       </c>
     </row>
     <row r="41">
@@ -3215,19 +3215,19 @@
         <v>24574</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>19028</v>
+        <v>18592</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>28620</v>
+        <v>28131</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.7561489869532142</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.5854972960356074</v>
+        <v>0.5720683333128441</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.8806500361974237</v>
+        <v>0.8655985458665635</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>27</v>
@@ -3236,19 +3236,19 @@
         <v>31277</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>24375</v>
+        <v>23906</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>37565</v>
+        <v>37528</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.6576290292183312</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5125038273671533</v>
+        <v>0.5026505114757024</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.7898418902297568</v>
+        <v>0.7890761303968138</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>53</v>
@@ -3257,19 +3257,19 @@
         <v>55851</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>46924</v>
+        <v>46172</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>63476</v>
+        <v>63077</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.6976219223163734</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.5861157424710772</v>
+        <v>0.5767277652462053</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.7928680709060204</v>
+        <v>0.7878753872062049</v>
       </c>
     </row>
     <row r="42">
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6232</v>
+        <v>5900</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.06091568641641108</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1917720108799854</v>
+        <v>0.1815338844419714</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>5</v>
@@ -3307,19 +3307,19 @@
         <v>4865</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1732</v>
+        <v>1817</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>10387</v>
+        <v>10065</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1022987441836825</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03642157913604002</v>
+        <v>0.03821423974907998</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2183893311815829</v>
+        <v>0.2116326026666025</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>7</v>
@@ -3328,19 +3328,19 @@
         <v>6845</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2758</v>
+        <v>3266</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>13363</v>
+        <v>12948</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.08549983111664414</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.03444752349679241</v>
+        <v>0.04079120653149437</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1669198273880769</v>
+        <v>0.1617331351518796</v>
       </c>
     </row>
     <row r="43">
@@ -3432,19 +3432,19 @@
         <v>15010</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>8643</v>
+        <v>8993</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>23967</v>
+        <v>22591</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1185802803852534</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0682851792858145</v>
+        <v>0.07104578713310664</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1893449281325758</v>
+        <v>0.178478730276999</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>45</v>
@@ -3453,19 +3453,19 @@
         <v>48218</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>36914</v>
+        <v>36422</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>63679</v>
+        <v>61772</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2088085470507513</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1598563786335921</v>
+        <v>0.1577228088778697</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2757598114391963</v>
+        <v>0.2675023860821519</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>61</v>
@@ -3474,19 +3474,19 @@
         <v>63228</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>49949</v>
+        <v>50924</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>79290</v>
+        <v>78033</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.176861917608825</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.139717807864013</v>
+        <v>0.142445197230937</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2217901046181327</v>
+        <v>0.2182727943562024</v>
       </c>
     </row>
     <row r="45">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>3820</v>
+        <v>4266</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.006601954204140626</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.03017721710530534</v>
+        <v>0.03369926276941276</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>10</v>
@@ -3524,19 +3524,19 @@
         <v>10763</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>5330</v>
+        <v>5440</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>18918</v>
+        <v>19190</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.04660796929103392</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.02308064388712291</v>
+        <v>0.02355958252150759</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.08192300894079724</v>
+        <v>0.08310123515786429</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>11</v>
@@ -3545,19 +3545,19 @@
         <v>11598</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>6350</v>
+        <v>5299</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>20286</v>
+        <v>19388</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.03244325809063792</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.01776248834287934</v>
+        <v>0.01482331737080797</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.05674487036924866</v>
+        <v>0.05423232965068588</v>
       </c>
     </row>
     <row r="46">
@@ -3574,19 +3574,19 @@
         <v>104298</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>94745</v>
+        <v>95517</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>111981</v>
+        <v>112116</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.8239848027991133</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.7485122786821964</v>
+        <v>0.7546099108305555</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.8846786918138952</v>
+        <v>0.8857489583751416</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>145</v>
@@ -3595,19 +3595,19 @@
         <v>156728</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>141750</v>
+        <v>143405</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>170646</v>
+        <v>171563</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.678707217715202</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.6138456184415008</v>
+        <v>0.6210085959529396</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.7389759762282542</v>
+        <v>0.7429484714321775</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>255</v>
@@ -3616,19 +3616,19 @@
         <v>261028</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>243453</v>
+        <v>243818</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>275794</v>
+        <v>276047</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.7301448585833309</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.6809862609422086</v>
+        <v>0.6820071462578373</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.7714487303605652</v>
+        <v>0.7721585582126316</v>
       </c>
     </row>
     <row r="47">
@@ -3645,19 +3645,19 @@
         <v>6434</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2520</v>
+        <v>2680</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>13301</v>
+        <v>14318</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.05083296261149261</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0199091249666376</v>
+        <v>0.0211734986049134</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1050816514254934</v>
+        <v>0.1131137808070915</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>15</v>
@@ -3666,19 +3666,19 @@
         <v>15212</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>9201</v>
+        <v>8471</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>24972</v>
+        <v>23526</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.06587626594301266</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03984417408726114</v>
+        <v>0.03668331944547178</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1081398890618986</v>
+        <v>0.1018783828858286</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>21</v>
@@ -3687,19 +3687,19 @@
         <v>21647</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>13231</v>
+        <v>14130</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>32167</v>
+        <v>32718</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.06054996571720619</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0370109929040582</v>
+        <v>0.03952450256551555</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.0899787508579853</v>
+        <v>0.09151907305314388</v>
       </c>
     </row>
     <row r="48">
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5721</v>
+        <v>5494</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1528599991651138</v>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4856843704688127</v>
+        <v>0.4664236225723006</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5218</v>
+        <v>5290</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03668771214638206</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1834976003624354</v>
+        <v>0.1860168921908765</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -4077,19 +4077,19 @@
         <v>2844</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7680</v>
+        <v>7214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07071334272929694</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02003159761097946</v>
+        <v>0.02017840488185464</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1909782078297599</v>
+        <v>0.1793914720593872</v>
       </c>
     </row>
     <row r="5">
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3916</v>
+        <v>4895</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08086644126121868</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3324448939673979</v>
+        <v>0.4155310253293577</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -4127,19 +4127,19 @@
         <v>7562</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3329</v>
+        <v>3258</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12888</v>
+        <v>12970</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2659242343155824</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1170657211421675</v>
+        <v>0.114568715818859</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4532204873147355</v>
+        <v>0.4560967344315172</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -4148,19 +4148,19 @@
         <v>8515</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4145</v>
+        <v>4068</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14308</v>
+        <v>14096</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2117227697103276</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1030730687980405</v>
+        <v>0.1011494072832174</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3557815574936473</v>
+        <v>0.3505062636443486</v>
       </c>
     </row>
     <row r="6">
@@ -4177,19 +4177,19 @@
         <v>8032</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4788</v>
+        <v>4119</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10814</v>
+        <v>10838</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6818877559797686</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4064872635049035</v>
+        <v>0.3496789187890243</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9180324160088306</v>
+        <v>0.9201492669048891</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -4198,19 +4198,19 @@
         <v>18852</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12683</v>
+        <v>12673</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23107</v>
+        <v>23254</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6629394234487974</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4459958955407145</v>
+        <v>0.4456561697706492</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8125738816065541</v>
+        <v>0.817741837702901</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -4219,19 +4219,19 @@
         <v>26884</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20497</v>
+        <v>20726</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32180</v>
+        <v>32249</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.668489189054747</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5096769514491299</v>
+        <v>0.5153691213325398</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8001794485007456</v>
+        <v>0.8018886158524817</v>
       </c>
     </row>
     <row r="7">
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4036</v>
+        <v>4640</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08438580359389893</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3426356763911261</v>
+        <v>0.3938809342104521</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4937</v>
+        <v>5511</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03444863008923807</v>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1735981973425322</v>
+        <v>0.1937814253847819</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6192</v>
+        <v>6037</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04907469850562849</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.153972158446618</v>
+        <v>0.1501182658417042</v>
       </c>
     </row>
     <row r="8">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6269</v>
+        <v>6806</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09107882392916244</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2665777369722804</v>
+        <v>0.289382015660357</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -4415,19 +4415,19 @@
         <v>7387</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3003</v>
+        <v>2316</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13294</v>
+        <v>14410</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1744960694074689</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07092888137845986</v>
+        <v>0.054704073482786</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3140234007976255</v>
+        <v>0.3403979249477704</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -4436,19 +4436,19 @@
         <v>9529</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4303</v>
+        <v>4834</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17577</v>
+        <v>18212</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1447043976669828</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06535000884814811</v>
+        <v>0.07341255825707034</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2669186639347393</v>
+        <v>0.2765559084076312</v>
       </c>
     </row>
     <row r="10">
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6592</v>
+        <v>7294</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0883766744478031</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2802870695031159</v>
+        <v>0.3101516679956491</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -4486,19 +4486,19 @@
         <v>7746</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3302</v>
+        <v>3393</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13618</v>
+        <v>14570</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1829676815025459</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0779906742677304</v>
+        <v>0.08014952504243968</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3216890618855457</v>
+        <v>0.3441582053064596</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -4507,19 +4507,19 @@
         <v>9824</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4361</v>
+        <v>5259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16783</v>
+        <v>17481</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1491854076379677</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06622003674757077</v>
+        <v>0.07986092707235373</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2548544008443075</v>
+        <v>0.2654643004766987</v>
       </c>
     </row>
     <row r="11">
@@ -4536,19 +4536,19 @@
         <v>15982</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9429</v>
+        <v>9925</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20341</v>
+        <v>20494</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6795564195559015</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4009405215231929</v>
+        <v>0.4220239902648213</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8649188829557019</v>
+        <v>0.8714145357033546</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -4557,19 +4557,19 @@
         <v>27201</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20154</v>
+        <v>19640</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33474</v>
+        <v>33377</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6425362490899852</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4760814172243182</v>
+        <v>0.4639361285225551</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7907034337425517</v>
+        <v>0.7884178307311939</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -4578,19 +4578,19 @@
         <v>43183</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>34424</v>
+        <v>32721</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>50924</v>
+        <v>50313</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6557576490531887</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5227519502714442</v>
+        <v>0.4968881679633388</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7733061269279852</v>
+        <v>0.7640314917973322</v>
       </c>
     </row>
     <row r="12">
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11169</v>
+        <v>9109</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.140988082067133</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4749039272016576</v>
+        <v>0.3873203749348717</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13474</v>
+        <v>13369</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05035254564186079</v>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.204617149869505</v>
+        <v>0.2030132371215885</v>
       </c>
     </row>
     <row r="13">
@@ -4745,19 +4745,19 @@
         <v>3112</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>909</v>
+        <v>961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6776</v>
+        <v>6792</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2161538175353754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06312799238711303</v>
+        <v>0.0667594478306522</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4705707953164401</v>
+        <v>0.4717014253851914</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -4766,19 +4766,19 @@
         <v>4360</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1113</v>
+        <v>2144</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9654</v>
+        <v>9826</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1645631646833293</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04201215571333408</v>
+        <v>0.08094839621836798</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3644027604801837</v>
+        <v>0.3708896964435019</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -4787,19 +4787,19 @@
         <v>7472</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3206</v>
+        <v>3193</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13197</v>
+        <v>13292</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1827299208081866</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07841186495473912</v>
+        <v>0.07809394943946159</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.322734601196014</v>
+        <v>0.3250635693004335</v>
       </c>
     </row>
     <row r="15">
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4728</v>
+        <v>4490</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06929073651850401</v>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3283899485544818</v>
+        <v>0.3118291405295602</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -4837,19 +4837,19 @@
         <v>9571</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5228</v>
+        <v>5241</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14763</v>
+        <v>14945</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3612846827923012</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.197358273901162</v>
+        <v>0.1978238834782524</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5572647825257179</v>
+        <v>0.5641259192071366</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>10</v>
@@ -4858,19 +4858,19 @@
         <v>10569</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>5271</v>
+        <v>5233</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>17278</v>
+        <v>17046</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2584640647415181</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1288939288493942</v>
+        <v>0.1279641505669384</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4225427572697699</v>
+        <v>0.4168651479396727</v>
       </c>
     </row>
     <row r="16">
@@ -4887,19 +4887,19 @@
         <v>10289</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6547</v>
+        <v>5544</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13366</v>
+        <v>13288</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7145554459461206</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4546736636381974</v>
+        <v>0.3849970882648871</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9282687919409817</v>
+        <v>0.9228186360438583</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -4908,19 +4908,19 @@
         <v>12561</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7331</v>
+        <v>8162</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17828</v>
+        <v>18026</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4741521525243695</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2767394329109956</v>
+        <v>0.3080985127114702</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6729697918407642</v>
+        <v>0.6804420135290119</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -4929,19 +4929,19 @@
         <v>22850</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16752</v>
+        <v>16880</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29315</v>
+        <v>29670</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5588060144502952</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4096821409767519</v>
+        <v>0.4127962527152794</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7168975304164642</v>
+        <v>0.7255786511736473</v>
       </c>
     </row>
     <row r="17">
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6704</v>
+        <v>6571</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1143889122829168</v>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3480445094154947</v>
+        <v>0.3411232921937052</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -5101,19 +5101,19 @@
         <v>4066</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1051</v>
+        <v>1017</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9385</v>
+        <v>9072</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1030187042073989</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02663011576710425</v>
+        <v>0.02576613017136861</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2377877208866087</v>
+        <v>0.2298680465224186</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -5122,19 +5122,19 @@
         <v>6269</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2984</v>
+        <v>3040</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12616</v>
+        <v>12680</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.106748071747138</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0508021874288458</v>
+        <v>0.05176074062013605</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2148066464151402</v>
+        <v>0.2159090639636024</v>
       </c>
     </row>
     <row r="20">
@@ -5164,19 +5164,19 @@
         <v>4482</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1160</v>
+        <v>1173</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10675</v>
+        <v>9908</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1135727065093236</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02938600681179183</v>
+        <v>0.02971649757833765</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2704853462928394</v>
+        <v>0.2510432580991709</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -5185,19 +5185,19 @@
         <v>4482</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1172</v>
+        <v>1181</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10230</v>
+        <v>9354</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0763214651738047</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01994833633432423</v>
+        <v>0.02010393306668213</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1741860094042932</v>
+        <v>0.1592635556685296</v>
       </c>
     </row>
     <row r="21">
@@ -5214,7 +5214,7 @@
         <v>17060</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12559</v>
+        <v>12692</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>19263</v>
@@ -5223,7 +5223,7 @@
         <v>0.8856110877170832</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6519554905845054</v>
+        <v>0.6588767078062945</v>
       </c>
       <c r="I21" s="6" t="n">
         <v>1</v>
@@ -5235,19 +5235,19 @@
         <v>29902</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>23436</v>
+        <v>23337</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>34931</v>
+        <v>34336</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.757640329937736</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5938148134316888</v>
+        <v>0.5913149165696535</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8850685686834302</v>
+        <v>0.8699857738796953</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>44</v>
@@ -5256,19 +5256,19 @@
         <v>46961</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>40476</v>
+        <v>39970</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>52488</v>
+        <v>52272</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7996140552142076</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6891846474632913</v>
+        <v>0.6805654995023614</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.893709308233399</v>
+        <v>0.8900359616889446</v>
       </c>
     </row>
     <row r="22">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5482</v>
+        <v>5187</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02576825934554151</v>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1388952633397113</v>
+        <v>0.13143500473483</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5191</v>
+        <v>5544</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01731640786484967</v>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08838137585794034</v>
+        <v>0.09440222777576429</v>
       </c>
     </row>
     <row r="23">
@@ -5436,19 +5436,19 @@
         <v>4180</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1090</v>
+        <v>1102</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9294</v>
+        <v>9423</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1654652885202557</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04315512461468222</v>
+        <v>0.04363666786485674</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3679111483946507</v>
+        <v>0.3730288748842807</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -5457,19 +5457,19 @@
         <v>4180</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10152</v>
+        <v>9480</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1220887204006754</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03228765602370952</v>
+        <v>0.03231926801527047</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2965203698199081</v>
+        <v>0.2769041685694773</v>
       </c>
     </row>
     <row r="25">
@@ -5486,19 +5486,19 @@
         <v>3414</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1099</v>
+        <v>1116</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6765</v>
+        <v>6787</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.380365880489475</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1224599519039952</v>
+        <v>0.1243173629701339</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7537794399548252</v>
+        <v>0.7561981241708891</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -5507,19 +5507,19 @@
         <v>5192</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2072</v>
+        <v>1968</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10566</v>
+        <v>10262</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2055233049198828</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08203666633895335</v>
+        <v>0.0779153517486645</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4182682373131684</v>
+        <v>0.4062578491907604</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -5528,19 +5528,19 @@
         <v>8605</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4322</v>
+        <v>4222</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14830</v>
+        <v>14880</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2513581199268313</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1262499214556163</v>
+        <v>0.1233264653297104</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4331652691969205</v>
+        <v>0.4346222387910902</v>
       </c>
     </row>
     <row r="26">
@@ -5557,19 +5557,19 @@
         <v>5561</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2210</v>
+        <v>2188</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7876</v>
+        <v>7859</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.619634119510525</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2462205600451748</v>
+        <v>0.2438018758291109</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8775400480960048</v>
+        <v>0.8756826370298662</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -5578,19 +5578,19 @@
         <v>15889</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10576</v>
+        <v>10839</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20114</v>
+        <v>20133</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6290114065598615</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4186686131653292</v>
+        <v>0.4290659514635063</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7962519485426611</v>
+        <v>0.7970128220867616</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>20</v>
@@ -5599,19 +5599,19 @@
         <v>21451</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14963</v>
+        <v>15095</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26715</v>
+        <v>26710</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6265531596724933</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4370482690945441</v>
+        <v>0.4409136025653798</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7803095151965975</v>
+        <v>0.7801789014953251</v>
       </c>
     </row>
     <row r="27">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6475</v>
+        <v>6470</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1195785984357026</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3581013505591734</v>
+        <v>0.3578338300586464</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -5771,19 +5771,19 @@
         <v>3243</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7579</v>
+        <v>8507</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1523852537699082</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04963266225158391</v>
+        <v>0.04943598520726983</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3560854922505964</v>
+        <v>0.3997185182585354</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -5792,19 +5792,19 @@
         <v>5405</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10842</v>
+        <v>10947</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1373156587077232</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05436303218550739</v>
+        <v>0.05439918290982795</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2754215722384445</v>
+        <v>0.2780914947946017</v>
       </c>
     </row>
     <row r="30">
@@ -5821,19 +5821,19 @@
         <v>4276</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1073</v>
+        <v>1087</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8531</v>
+        <v>9604</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.236474760076045</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05934003569681934</v>
+        <v>0.06009939171770354</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4717929145684137</v>
+        <v>0.5311432470421515</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -5842,19 +5842,19 @@
         <v>6333</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2188</v>
+        <v>3057</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11513</v>
+        <v>10700</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2975661274670655</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1027988908692938</v>
+        <v>0.1436417094374717</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5409582568496802</v>
+        <v>0.5027453803094635</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>10</v>
@@ -5863,19 +5863,19 @@
         <v>10609</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5284</v>
+        <v>5314</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>16100</v>
+        <v>16915</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2695040724053911</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1342330388627823</v>
+        <v>0.1349864173070775</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4090064713881236</v>
+        <v>0.4296967674512391</v>
       </c>
     </row>
     <row r="31">
@@ -5892,19 +5892,19 @@
         <v>11644</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7374</v>
+        <v>6328</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>15899</v>
+        <v>14872</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6439466414882524</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4078068720194775</v>
+        <v>0.3499570960431253</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.8792926395443202</v>
+        <v>0.8225011654415626</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>11</v>
@@ -5913,19 +5913,19 @@
         <v>11707</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7376</v>
+        <v>6708</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16040</v>
+        <v>15997</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5500486187630262</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3465782474968224</v>
+        <v>0.3151971058589098</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.753630408949467</v>
+        <v>0.7516328886113884</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>22</v>
@@ -5934,19 +5934,19 @@
         <v>23350</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>17042</v>
+        <v>16934</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>29762</v>
+        <v>28822</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5931802688868856</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4329299815568182</v>
+        <v>0.4301922883479523</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7560730469802469</v>
+        <v>0.7322017204023588</v>
       </c>
     </row>
     <row r="32">
@@ -6085,19 +6085,19 @@
         <v>5522</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2088</v>
+        <v>2078</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>11411</v>
+        <v>11399</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1883017714690878</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07121129173452229</v>
+        <v>0.07087341175314228</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3891198651489568</v>
+        <v>0.3887019597843803</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>9</v>
@@ -6106,19 +6106,19 @@
         <v>12137</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6285</v>
+        <v>6086</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>19338</v>
+        <v>19856</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2458480419576864</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1273175034885198</v>
+        <v>0.1232864649443918</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3917119135875271</v>
+        <v>0.402219817405181</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>14</v>
@@ -6127,19 +6127,19 @@
         <v>17659</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>11108</v>
+        <v>10457</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>26954</v>
+        <v>28660</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2244025449026137</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1411506874475132</v>
+        <v>0.1328816107234848</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3425268980119187</v>
+        <v>0.3641974920446157</v>
       </c>
     </row>
     <row r="35">
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4841</v>
+        <v>4849</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0383648090614859</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1650795946489447</v>
+        <v>0.1653576936780665</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -6177,19 +6177,19 @@
         <v>6370</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2957</v>
+        <v>2895</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12883</v>
+        <v>13045</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1290396571501436</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05989152710908552</v>
+        <v>0.05863880226298534</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2609574010161395</v>
+        <v>0.2642543942322141</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -6198,19 +6198,19 @@
         <v>7495</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3186</v>
+        <v>3214</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>14162</v>
+        <v>13677</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09524828941868058</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0404812906126261</v>
+        <v>0.04084152143048</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1799662680904067</v>
+        <v>0.1738029791798708</v>
       </c>
     </row>
     <row r="36">
@@ -6227,19 +6227,19 @@
         <v>21697</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15927</v>
+        <v>16326</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>25904</v>
+        <v>26054</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7398397937768735</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5431182837117352</v>
+        <v>0.5567108145487082</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8833019322522035</v>
+        <v>0.8884271633548312</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>27</v>
@@ -6248,19 +6248,19 @@
         <v>29915</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>22544</v>
+        <v>22687</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>37625</v>
+        <v>37751</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6059666851698393</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4566567741605989</v>
+        <v>0.4595608252647214</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7621556495857116</v>
+        <v>0.7646947099270893</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>46</v>
@@ -6269,19 +6269,19 @@
         <v>51611</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>42027</v>
+        <v>41732</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>59850</v>
+        <v>60371</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6558565447907924</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.534068702365133</v>
+        <v>0.5303127733470142</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.760555089185751</v>
+        <v>0.7671650359989942</v>
       </c>
     </row>
     <row r="37">
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5398</v>
+        <v>4539</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03349362569255281</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1840585443804237</v>
+        <v>0.1547890991939225</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>5821</v>
+        <v>5409</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01914561572233063</v>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1179043866943714</v>
+        <v>0.1095578287530749</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6045</v>
+        <v>6314</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02449262088791329</v>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07682303807357466</v>
+        <v>0.08023999392043887</v>
       </c>
     </row>
     <row r="38">
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>6944</v>
+        <v>6270</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1007510732223781</v>
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3334539687272112</v>
+        <v>0.3010690386752305</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>6</v>
@@ -6465,19 +6465,19 @@
         <v>6565</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2158</v>
+        <v>3192</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>12159</v>
+        <v>12058</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1400174307318296</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.04601749771005217</v>
+        <v>0.06807208266207411</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2593127579344556</v>
+        <v>0.25716558127721</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>8</v>
@@ -6486,19 +6486,19 @@
         <v>8664</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>3438</v>
+        <v>4183</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>15447</v>
+        <v>15685</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1279413848519322</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.05077282835678019</v>
+        <v>0.06177267813906705</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2281124236162007</v>
+        <v>0.2316302150676328</v>
       </c>
     </row>
     <row r="40">
@@ -6528,19 +6528,19 @@
         <v>5538</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2136</v>
+        <v>2118</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>12156</v>
+        <v>11232</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1181053571668983</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04555213282737772</v>
+        <v>0.04516036925661285</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2592556105475216</v>
+        <v>0.2395355434330249</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>5</v>
@@ -6549,19 +6549,19 @@
         <v>5538</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2137</v>
+        <v>2084</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>12223</v>
+        <v>11137</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.08178302420118266</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03156242758081262</v>
+        <v>0.03077613404482234</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1805054000463047</v>
+        <v>0.1644625623830289</v>
       </c>
     </row>
     <row r="41">
@@ -6578,19 +6578,19 @@
         <v>17727</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>13156</v>
+        <v>13043</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>19972</v>
+        <v>19982</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.8512442433589901</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.6317249886560722</v>
+        <v>0.6263194323847862</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.9590625996338821</v>
+        <v>0.9595276184430572</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>28</v>
@@ -6599,19 +6599,19 @@
         <v>31367</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>24534</v>
+        <v>24542</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>37151</v>
+        <v>37879</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.6689488096485966</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5232269046984139</v>
+        <v>0.5234012885676168</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.7923031292285377</v>
+        <v>0.8078260008039329</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>42</v>
@@ -6620,19 +6620,19 @@
         <v>49095</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>40358</v>
+        <v>41434</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>56009</v>
+        <v>56328</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.7250122736623548</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.5959852742366842</v>
+        <v>0.6118792922990637</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.8271230321255859</v>
+        <v>0.8318219088891945</v>
       </c>
     </row>
     <row r="42">
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5268</v>
+        <v>5788</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.04800468341863182</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2529814121086137</v>
+        <v>0.2779573219081283</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3</v>
@@ -6670,19 +6670,19 @@
         <v>3420</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>8998</v>
+        <v>8115</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.0729284024526755</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02298658330792161</v>
+        <v>0.02293680966573879</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1918890469715429</v>
+        <v>0.1730727377303568</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4</v>
@@ -6691,19 +6691,19 @@
         <v>4419</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1128</v>
+        <v>1083</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>10183</v>
+        <v>10093</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.06526331728453033</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01665222940732296</v>
+        <v>0.01599239372274672</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1503735579638589</v>
+        <v>0.1490505548829587</v>
       </c>
     </row>
     <row r="43">
@@ -6795,19 +6795,19 @@
         <v>19041</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>11636</v>
+        <v>11923</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>28717</v>
+        <v>29821</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1302681146703799</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.07960580227825394</v>
+        <v>0.08156842930421079</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1964637256696914</v>
+        <v>0.2040195781835142</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>37</v>
@@ -6816,19 +6816,19 @@
         <v>42981</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>30607</v>
+        <v>30850</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>58306</v>
+        <v>55298</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1537613461252115</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1094931398420656</v>
+        <v>0.1103621389411912</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2085856856036618</v>
+        <v>0.1978250819348606</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>55</v>
@@ -6837,19 +6837,19 @@
         <v>62022</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>47391</v>
+        <v>46865</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>78773</v>
+        <v>77622</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1456947041609223</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1113255794874831</v>
+        <v>0.1100897838692191</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1850432910605568</v>
+        <v>0.1823401094597826</v>
       </c>
     </row>
     <row r="45">
@@ -6866,19 +6866,19 @@
         <v>12843</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>7215</v>
+        <v>7324</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>21744</v>
+        <v>21118</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.0878680605166821</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.04936384719114745</v>
+        <v>0.05010644676677192</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.148761865474298</v>
+        <v>0.1444776600768732</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>49</v>
@@ -6887,19 +6887,19 @@
         <v>52794</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>41490</v>
+        <v>40564</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>67922</v>
+        <v>67903</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1888679467997338</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1484288774840873</v>
+        <v>0.1451140758571703</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.242984893356198</v>
+        <v>0.2429178778633886</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>61</v>
@@ -6908,19 +6908,19 @@
         <v>65638</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>51025</v>
+        <v>52022</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>81717</v>
+        <v>81677</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1541885999995408</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1198611443916147</v>
+        <v>0.1222047987103007</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.19195949168977</v>
+        <v>0.19186677908096</v>
       </c>
     </row>
     <row r="46">
@@ -6937,19 +6937,19 @@
         <v>107992</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>96382</v>
+        <v>94950</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>118824</v>
+        <v>117915</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.7388192035239088</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.6593940802760302</v>
+        <v>0.6495920634905427</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.8129281302701264</v>
+        <v>0.8067083965473405</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>164</v>
@@ -6958,19 +6958,19 @@
         <v>177393</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>159585</v>
+        <v>161679</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>194142</v>
+        <v>194899</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.634613232097473</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.5709063864739639</v>
+        <v>0.5783970963712667</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.6945315822375143</v>
+        <v>0.697237628759714</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>258</v>
@@ -6979,19 +6979,19 @@
         <v>285385</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>266694</v>
+        <v>264053</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>304904</v>
+        <v>302962</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.6703934211129411</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.6264863930075615</v>
+        <v>0.6202832567841648</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.7162438735309522</v>
+        <v>0.7116835666580251</v>
       </c>
     </row>
     <row r="47">
@@ -7008,19 +7008,19 @@
         <v>6292</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>14925</v>
+        <v>15764</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04304462128902921</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01377389946623971</v>
+        <v>0.01358335476576408</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1021107499601447</v>
+        <v>0.1078470775490848</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>6</v>
@@ -7029,19 +7029,19 @@
         <v>6361</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2944</v>
+        <v>2280</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>12969</v>
+        <v>13169</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.02275747497758158</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01053305947733116</v>
+        <v>0.008157417747656203</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.04639682697974521</v>
+        <v>0.04711162068453293</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>11</v>
@@ -7050,19 +7050,19 @@
         <v>12653</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>6420</v>
+        <v>6480</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>22649</v>
+        <v>23012</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.02972327472659582</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01508180253577991</v>
+        <v>0.01522285783921976</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.05320471741105751</v>
+        <v>0.05405815566549491</v>
       </c>
     </row>
     <row r="48">
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6267</v>
+        <v>6867</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09435961520337686</v>
@@ -7423,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2530573917915798</v>
+        <v>0.2772872723304671</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7283</v>
+        <v>7517</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0692112788684061</v>
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2157194385577875</v>
+        <v>0.2226564465762327</v>
       </c>
     </row>
     <row r="5">
@@ -7464,16 +7464,16 @@
         <v>1569</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6490</v>
+        <v>6492</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4433849801489045</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1743428878783613</v>
+        <v>0.1743187555300932</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7213203546269932</v>
+        <v>0.7214526729262295</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -7482,19 +7482,19 @@
         <v>5897</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2182</v>
+        <v>2196</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11407</v>
+        <v>11443</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2381445441605357</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08810110634110313</v>
+        <v>0.08866572957603967</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4606245179692295</v>
+        <v>0.4620850324061772</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -7503,19 +7503,19 @@
         <v>9887</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5237</v>
+        <v>5111</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16168</v>
+        <v>16016</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2928443805539637</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1551121720836432</v>
+        <v>0.1513735252521903</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4788748284269571</v>
+        <v>0.4743861574893031</v>
       </c>
     </row>
     <row r="6">
@@ -7532,19 +7532,19 @@
         <v>4215</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6652</v>
+        <v>6657</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4684214613651014</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1891416624008034</v>
+        <v>0.1893118384702591</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7392396482949501</v>
+        <v>0.7397940676003577</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -7553,19 +7553,19 @@
         <v>15625</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10269</v>
+        <v>9476</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20454</v>
+        <v>20527</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6309466504197625</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4146907226075653</v>
+        <v>0.382665051369442</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8259382814113522</v>
+        <v>0.8288988508818372</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -7574,19 +7574,19 @@
         <v>19840</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13521</v>
+        <v>13699</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25513</v>
+        <v>25228</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.587631105857166</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4004759196845437</v>
+        <v>0.4057459794066587</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7556687258501922</v>
+        <v>0.7472162351856259</v>
       </c>
     </row>
     <row r="7">
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3296</v>
+        <v>3227</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08819355848599407</v>
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3663538005989609</v>
+        <v>0.3586804376630705</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -7627,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4101</v>
+        <v>4247</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03654919021632488</v>
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1655904576062039</v>
+        <v>0.1714805122427565</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5314</v>
+        <v>5551</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05031323472046412</v>
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1574087779159042</v>
+        <v>0.1644057760895365</v>
       </c>
     </row>
     <row r="8">
@@ -7749,19 +7749,19 @@
         <v>3509</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>867</v>
+        <v>1015</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7299</v>
+        <v>7509</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2755252543646042</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06806532643969966</v>
+        <v>0.07971635486237034</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5731952616959628</v>
+        <v>0.5897059906124648</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -7770,19 +7770,19 @@
         <v>5966</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2256</v>
+        <v>2035</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12305</v>
+        <v>12080</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.164149068634072</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06206828199119298</v>
+        <v>0.05598621531076142</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3385796726733742</v>
+        <v>0.3323872323956536</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -7791,19 +7791,19 @@
         <v>9474</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4864</v>
+        <v>4455</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16488</v>
+        <v>15721</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1930470175481989</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09909894408935914</v>
+        <v>0.09077862412148628</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3359560458381644</v>
+        <v>0.3203317655300352</v>
       </c>
     </row>
     <row r="10">
@@ -7836,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8072</v>
+        <v>8136</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07381803130004087</v>
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2221089701534447</v>
+        <v>0.223870243887573</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9119</v>
+        <v>8090</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05466501682519507</v>
@@ -7866,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1857986375686441</v>
+        <v>0.1648472214661404</v>
       </c>
     </row>
     <row r="11">
@@ -7883,19 +7883,19 @@
         <v>9225</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5435</v>
+        <v>5225</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11867</v>
+        <v>11719</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7244747456353957</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4268047383040369</v>
+        <v>0.4102940093875348</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9319346735603004</v>
+        <v>0.9202836451376296</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -7904,19 +7904,19 @@
         <v>27695</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20933</v>
+        <v>21236</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32634</v>
+        <v>32663</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7620329000658871</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5759723200402038</v>
+        <v>0.5843053086453175</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8979158071275839</v>
+        <v>0.8987220979749054</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -7925,19 +7925,19 @@
         <v>36921</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29425</v>
+        <v>29211</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42598</v>
+        <v>42340</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.752287965626606</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5995633469470946</v>
+        <v>0.5952053155254451</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8679679946435477</v>
+        <v>0.8627182519632696</v>
       </c>
     </row>
     <row r="12">
@@ -8076,19 +8076,19 @@
         <v>3637</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7469</v>
+        <v>7533</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.246794399902176</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05763947154976905</v>
+        <v>0.05675312244898862</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5068681413848718</v>
+        <v>0.5112298924125733</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7695</v>
+        <v>6613</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1423456000398334</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4440805805467705</v>
+        <v>0.3816153219203894</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -8118,19 +8118,19 @@
         <v>6103</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2502</v>
+        <v>2409</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11501</v>
+        <v>11881</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1903485484748147</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07802453910652002</v>
+        <v>0.0751440136360373</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3586837378987726</v>
+        <v>0.3705444151447229</v>
       </c>
     </row>
     <row r="15">
@@ -8194,19 +8194,19 @@
         <v>11099</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7267</v>
+        <v>7203</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13887</v>
+        <v>13900</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.753205600097824</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4931318586151279</v>
+        <v>0.4887701075874277</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9423605284502309</v>
+        <v>0.9432468775510113</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -8215,19 +8215,19 @@
         <v>13706</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8879</v>
+        <v>9458</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16219</v>
+        <v>16237</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7909595175036535</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5123926263307594</v>
+        <v>0.5458264242058887</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9360219929609772</v>
+        <v>0.9370134476210942</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -8236,19 +8236,19 @@
         <v>24805</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19193</v>
+        <v>18961</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28948</v>
+        <v>28937</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7736084387661373</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5985984120105351</v>
+        <v>0.5913463950126432</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9028057420866701</v>
+        <v>0.9024607589765732</v>
       </c>
     </row>
     <row r="17">
@@ -8281,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4767</v>
+        <v>4901</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06669488245651319</v>
@@ -8290,7 +8290,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2751114817040092</v>
+        <v>0.2828408203267253</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5164</v>
+        <v>6013</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03604301275904801</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1610506125468813</v>
+        <v>0.1875392399246516</v>
       </c>
     </row>
     <row r="18">
@@ -8403,19 +8403,19 @@
         <v>2684</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6148</v>
+        <v>6046</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1923195893856051</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0549481354686845</v>
+        <v>0.05505333533818977</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4404294517890406</v>
+        <v>0.4331308803625097</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -8424,19 +8424,19 @@
         <v>6188</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2156</v>
+        <v>2174</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12341</v>
+        <v>13505</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2106280417416099</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07339707928508532</v>
+        <v>0.07399729553069191</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4200390844467968</v>
+        <v>0.4596627386298862</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -8445,19 +8445,19 @@
         <v>8873</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4179</v>
+        <v>4102</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15768</v>
+        <v>15948</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2047313675030351</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09643289981715128</v>
+        <v>0.09466021241195484</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3638394270305753</v>
+        <v>0.3679743160437883</v>
       </c>
     </row>
     <row r="20">
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5569</v>
+        <v>5412</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1292164561815932</v>
@@ -8486,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3989929684793305</v>
+        <v>0.3877264077836678</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7744</v>
+        <v>8127</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08537840978917538</v>
@@ -8507,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2635756327733574</v>
+        <v>0.2766304902693382</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -8516,19 +8516,19 @@
         <v>4312</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1281</v>
+        <v>1372</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10187</v>
+        <v>10835</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09949749936622734</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02956300707947125</v>
+        <v>0.03165363573303467</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2350475808716418</v>
+        <v>0.2499968775937537</v>
       </c>
     </row>
     <row r="21">
@@ -8545,19 +8545,19 @@
         <v>9470</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5856</v>
+        <v>5894</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12260</v>
+        <v>12245</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6784639544328017</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4195481876280236</v>
+        <v>0.4222523794471755</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8783282955727574</v>
+        <v>0.8772886176831207</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -8566,19 +8566,19 @@
         <v>18634</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12847</v>
+        <v>11939</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23764</v>
+        <v>23820</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6342302227263342</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4372721062939569</v>
+        <v>0.406350189771028</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8088441367111328</v>
+        <v>0.8107389753485577</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>26</v>
@@ -8587,19 +8587,19 @@
         <v>28104</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20860</v>
+        <v>20968</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>33859</v>
+        <v>34270</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6484767522066927</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4813319062664821</v>
+        <v>0.4838244338364924</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7812504489985027</v>
+        <v>0.7907517083589805</v>
       </c>
     </row>
     <row r="22">
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6761</v>
+        <v>7454</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06976332574288041</v>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2301342927554823</v>
+        <v>0.2537152996674737</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6416</v>
+        <v>6307</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04729438092404497</v>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1480315622069174</v>
+        <v>0.1455378616737549</v>
       </c>
     </row>
     <row r="23">
@@ -8767,19 +8767,19 @@
         <v>3475</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1075</v>
+        <v>1053</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8302</v>
+        <v>8225</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1438342589712442</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04450649989562768</v>
+        <v>0.04360093358308747</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3436079130743002</v>
+        <v>0.3404531495752248</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -8788,19 +8788,19 @@
         <v>3475</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8127</v>
+        <v>8938</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1194513636554722</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03769960671516952</v>
+        <v>0.03765212519592198</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2793583674665967</v>
+        <v>0.3072565502243131</v>
       </c>
     </row>
     <row r="25">
@@ -8833,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7209</v>
+        <v>6994</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09498264119126573</v>
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2983698568466868</v>
+        <v>0.2894778495367252</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7612</v>
+        <v>7179</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07888111007102562</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2616472239675604</v>
+        <v>0.2467880920102156</v>
       </c>
     </row>
     <row r="26">
@@ -8893,19 +8893,19 @@
         <v>14307</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8753</v>
+        <v>8379</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19195</v>
+        <v>18804</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5921925754106631</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3622789771010536</v>
+        <v>0.3468260818037661</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.794510369713695</v>
+        <v>0.7782916658400223</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -8914,19 +8914,19 @@
         <v>19239</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13134</v>
+        <v>13148</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24174</v>
+        <v>24285</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6613244068246541</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4514711837028196</v>
+        <v>0.4519714849468323</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8309671768188867</v>
+        <v>0.8347832471664648</v>
       </c>
     </row>
     <row r="27">
@@ -8956,19 +8956,19 @@
         <v>4083</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>10144</v>
+        <v>10969</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.168990524426827</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04046227746968151</v>
+        <v>0.04074487129663919</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4198608000978806</v>
+        <v>0.454002226308916</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3</v>
@@ -8977,19 +8977,19 @@
         <v>4083</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>981</v>
+        <v>941</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>10692</v>
+        <v>10173</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1403431194488481</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03372993009332001</v>
+        <v>0.03234729576011062</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3675441166504667</v>
+        <v>0.3496888112039913</v>
       </c>
     </row>
     <row r="28">
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4999</v>
+        <v>5012</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1105755909312528</v>
@@ -9093,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3347380968887571</v>
+        <v>0.3355777516720256</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9582</v>
+        <v>9122</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1451760166159062</v>
@@ -9114,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4096736421947392</v>
+        <v>0.3899936740132532</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -9123,19 +9123,19 @@
         <v>5047</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1372</v>
+        <v>1705</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11755</v>
+        <v>11592</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.131692277210353</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03579491537672592</v>
+        <v>0.04449820410871671</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3067345016392216</v>
+        <v>0.3024785828732979</v>
       </c>
     </row>
     <row r="30">
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6565</v>
+        <v>6724</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05384568135928635</v>
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2806739657800468</v>
+        <v>0.2874729515952058</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6756</v>
+        <v>5600</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0328620916722641</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1762838808183354</v>
+        <v>0.1461354729894019</v>
       </c>
     </row>
     <row r="31">
@@ -9215,7 +9215,7 @@
         <v>13284</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>9936</v>
+        <v>9923</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>14935</v>
@@ -9224,7 +9224,7 @@
         <v>0.8894244090687472</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6652619031112429</v>
+        <v>0.6644222483279744</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1</v>
@@ -9236,19 +9236,19 @@
         <v>13943</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>8228</v>
+        <v>8464</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>19335</v>
+        <v>18580</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5961562155134946</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.351787403821487</v>
+        <v>0.3618649755279235</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.8266602324308826</v>
+        <v>0.794375193592324</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>27</v>
@@ -9257,19 +9257,19 @@
         <v>27227</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>20390</v>
+        <v>20531</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>32817</v>
+        <v>32737</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.7104424365523958</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5320529393330392</v>
+        <v>0.5357267392763472</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.8563099203409033</v>
+        <v>0.8542124604481788</v>
       </c>
     </row>
     <row r="32">
@@ -9299,19 +9299,19 @@
         <v>4791</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1216</v>
+        <v>1223</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10110</v>
+        <v>10253</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2048220865113129</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05197569832646347</v>
+        <v>0.05230952017374074</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4322376927366276</v>
+        <v>0.4383524284020518</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -9320,19 +9320,19 @@
         <v>4791</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1265</v>
+        <v>1233</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>11032</v>
+        <v>11452</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1250031945649871</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03301056306504517</v>
+        <v>0.03218386551479821</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2878676329990015</v>
+        <v>0.2988203761525838</v>
       </c>
     </row>
     <row r="33">
@@ -9424,19 +9424,19 @@
         <v>4490</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1713</v>
+        <v>1731</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9258</v>
+        <v>9359</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.169882350575344</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06481860068975734</v>
+        <v>0.06549495872814358</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3502873143005674</v>
+        <v>0.3541203723911254</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -9445,19 +9445,19 @@
         <v>9319</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4569</v>
+        <v>4552</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16950</v>
+        <v>16165</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1654418640968649</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08111278881811944</v>
+        <v>0.0808086590486916</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3009310990446451</v>
+        <v>0.2869923726660755</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>13</v>
@@ -9466,19 +9466,19 @@
         <v>13809</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7818</v>
+        <v>7437</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>22138</v>
+        <v>21705</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1668600456886625</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09447686875831622</v>
+        <v>0.08986368575960367</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2675117053353817</v>
+        <v>0.2622777633782165</v>
       </c>
     </row>
     <row r="35">
@@ -9508,19 +9508,19 @@
         <v>5379</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12284</v>
+        <v>13062</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09550521151555481</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02263138903381071</v>
+        <v>0.02271550901402705</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.21809088093607</v>
+        <v>0.2319032315929871</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>4</v>
@@ -9529,19 +9529,19 @@
         <v>5379</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1240</v>
+        <v>1692</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>12355</v>
+        <v>12695</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06500320828943779</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0149839482254109</v>
+        <v>0.02044519810907739</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1492946937577055</v>
+        <v>0.1534034194284313</v>
       </c>
     </row>
     <row r="36">
@@ -9558,19 +9558,19 @@
         <v>20881</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16063</v>
+        <v>16003</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>24562</v>
+        <v>24506</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7900380962381857</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6077579794856706</v>
+        <v>0.6054829426040372</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.9293058618273378</v>
+        <v>0.9272206730471326</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>32</v>
@@ -9579,19 +9579,19 @@
         <v>37203</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>28067</v>
+        <v>29162</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>43778</v>
+        <v>44383</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6605122258751875</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4983130759071326</v>
+        <v>0.517740541918987</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7772360897482684</v>
+        <v>0.7879810200298699</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>53</v>
@@ -9600,19 +9600,19 @@
         <v>58084</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>47923</v>
+        <v>49677</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>65955</v>
+        <v>66811</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7018795863886431</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.579091408567771</v>
+        <v>0.6002912440219671</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7969889756704842</v>
+        <v>0.8073374459493821</v>
       </c>
     </row>
     <row r="37">
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4353</v>
+        <v>5728</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04007955318647037</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1646999608131093</v>
+        <v>0.216715130440645</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4</v>
@@ -9650,19 +9650,19 @@
         <v>4424</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>10011</v>
+        <v>9304</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0785406985123928</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01958930806137607</v>
+        <v>0.01964320830359108</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1777300424878507</v>
+        <v>0.1651835302370492</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5</v>
@@ -9671,19 +9671,19 @@
         <v>5483</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1131</v>
+        <v>2136</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>12139</v>
+        <v>11094</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06625715963325662</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01366134879635962</v>
+        <v>0.02580615054012765</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1466875219467884</v>
+        <v>0.1340581025287549</v>
       </c>
     </row>
     <row r="38">
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5344</v>
+        <v>5386</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.06670634730334135</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2160585505197737</v>
+        <v>0.217744867135064</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>7</v>
@@ -9796,19 +9796,19 @@
         <v>9324</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>3683</v>
+        <v>3637</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>16953</v>
+        <v>17497</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.167473922500436</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.06614942547470319</v>
+        <v>0.06532685153968545</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3045129888915272</v>
+        <v>0.3142821989613514</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>9</v>
@@ -9817,19 +9817,19 @@
         <v>10974</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>5420</v>
+        <v>5339</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>20251</v>
+        <v>19301</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1364750201190295</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.06740253987240738</v>
+        <v>0.06640014641279281</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2518536168140132</v>
+        <v>0.2400384966086463</v>
       </c>
     </row>
     <row r="40">
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5274</v>
+        <v>4436</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03271942303709436</v>
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2132093490240964</v>
+        <v>0.1793394742745444</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6318</v>
+        <v>6042</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0241045553882481</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1134802943571977</v>
+        <v>0.1085262569735479</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7187</v>
+        <v>7891</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02675472773538444</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0893823092312703</v>
+        <v>0.09813737037593927</v>
       </c>
     </row>
     <row r="41">
@@ -9917,19 +9917,19 @@
         <v>22277</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>18536</v>
+        <v>18120</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>23985</v>
+        <v>23992</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.9005742296595642</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.7493530913089851</v>
+        <v>0.732534421087376</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.9696205897372855</v>
+        <v>0.9699234064015744</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>30</v>
@@ -9938,19 +9938,19 @@
         <v>40256</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>31913</v>
+        <v>31552</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>47129</v>
+        <v>47330</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.7230845288271287</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5732395735924928</v>
+        <v>0.5667449419784503</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.8465410998676548</v>
+        <v>0.8501632482409107</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>53</v>
@@ -9959,19 +9959,19 @@
         <v>62532</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>52989</v>
+        <v>51585</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>69598</v>
+        <v>69258</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.7776852860553164</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.6590030857678514</v>
+        <v>0.6415359005036868</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.8655625465622768</v>
+        <v>0.8613349850207849</v>
       </c>
     </row>
     <row r="42">
@@ -10001,19 +10001,19 @@
         <v>4751</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1314</v>
+        <v>1293</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>10838</v>
+        <v>11006</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.0853369932841872</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02359847547040658</v>
+        <v>0.02322664143283716</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1946729970908993</v>
+        <v>0.1976992034858393</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4</v>
@@ -10022,19 +10022,19 @@
         <v>4751</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>10631</v>
+        <v>10938</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.05908496609026963</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01648882121452672</v>
+        <v>0.01651379175541415</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1322112825000851</v>
+        <v>0.1360360465837942</v>
       </c>
     </row>
     <row r="43">
@@ -10126,19 +10126,19 @@
         <v>17621</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>11402</v>
+        <v>11091</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>24830</v>
+        <v>25643</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1450799672884868</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.09387336926364175</v>
+        <v>0.09131365325303466</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2044345413184652</v>
+        <v>0.2111288076292383</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>34</v>
@@ -10147,19 +10147,19 @@
         <v>42470</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>31019</v>
+        <v>30741</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>56917</v>
+        <v>57077</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1588485796188314</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1160181170356479</v>
+        <v>0.1149793726906935</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2128831490277394</v>
+        <v>0.2134821255813046</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>54</v>
@@ -10168,19 +10168,19 @@
         <v>60091</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>45684</v>
+        <v>46327</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>77741</v>
+        <v>76812</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1545475925262416</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1174926022305788</v>
+        <v>0.1191483386813608</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1999395332456371</v>
+        <v>0.1975509520018247</v>
       </c>
     </row>
     <row r="45">
@@ -10197,19 +10197,19 @@
         <v>6603</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>3220</v>
+        <v>3198</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>12386</v>
+        <v>12658</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.05436115516527579</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02651446948443541</v>
+        <v>0.02633384366399056</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1019802284320771</v>
+        <v>0.1042148095780319</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>17</v>
@@ -10218,19 +10218,19 @@
         <v>21364</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>12588</v>
+        <v>13187</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>31938</v>
+        <v>33079</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.07990708262964706</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.04708220114725186</v>
+        <v>0.04932116937475595</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1194566087518736</v>
+        <v>0.1237214389409692</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>25</v>
@@ -10239,19 +10239,19 @@
         <v>27967</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>18215</v>
+        <v>18132</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>40778</v>
+        <v>40914</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.07192714233818075</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0468456877928083</v>
+        <v>0.04663385445268416</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1048769040557538</v>
+        <v>0.1052250508586647</v>
       </c>
     </row>
     <row r="46">
@@ -10268,19 +10268,19 @@
         <v>95381</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>86858</v>
+        <v>86182</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>102508</v>
+        <v>102965</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.7853036358561492</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.7151310730211816</v>
+        <v>0.70955935838272</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.8439817150646605</v>
+        <v>0.8477445928385264</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>145</v>
@@ -10289,19 +10289,19 @@
         <v>181370</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>163874</v>
+        <v>163000</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>196610</v>
+        <v>197302</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.6783660226317373</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.6129278855133725</v>
+        <v>0.6096574351411415</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.7353673044149124</v>
+        <v>0.7379552010268792</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>251</v>
@@ -10310,19 +10310,19 @@
         <v>276751</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>258365</v>
+        <v>256240</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>296183</v>
+        <v>293586</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.7117707901678894</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.6644818684314048</v>
+        <v>0.6590190839937295</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.7617455240037146</v>
+        <v>0.7550668184663638</v>
       </c>
     </row>
     <row r="47">
@@ -10342,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>6086</v>
+        <v>5968</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.0152552416900882</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.05011038817406768</v>
+        <v>0.04913859309142663</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>19</v>
@@ -10360,19 +10360,19 @@
         <v>22159</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>14059</v>
+        <v>14223</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>34408</v>
+        <v>33820</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.08287831511978425</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.05258541567916753</v>
+        <v>0.0531969080621867</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1286937978937972</v>
+        <v>0.1264950229359623</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>21</v>
@@ -10381,19 +10381,19 @@
         <v>24011</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>15381</v>
+        <v>15546</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>35835</v>
+        <v>36057</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.06175447496768832</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03955809089055019</v>
+        <v>0.03998281215759915</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.09216449371671438</v>
+        <v>0.09273371805964825</v>
       </c>
     </row>
     <row r="48">
@@ -10729,19 +10729,19 @@
         <v>2117</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5523</v>
+        <v>5726</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07241679157028488</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02311261361631015</v>
+        <v>0.02323630447209776</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1889146026086205</v>
+        <v>0.1958786955069551</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -10750,19 +10750,19 @@
         <v>2816</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5800</v>
+        <v>6227</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08384995685716201</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02955864653081669</v>
+        <v>0.03000886792204292</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1726678544057339</v>
+        <v>0.1853943777328569</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -10771,19 +10771,19 @@
         <v>4934</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2369</v>
+        <v>2390</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9571</v>
+        <v>9578</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07852965767944059</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03771405819042969</v>
+        <v>0.03803725735776296</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1523427596199648</v>
+        <v>0.152453065622175</v>
       </c>
     </row>
     <row r="5">
@@ -10800,19 +10800,19 @@
         <v>3671</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7663</v>
+        <v>7338</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1255889863481064</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04958534237387716</v>
+        <v>0.04935552644751012</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2621386310613346</v>
+        <v>0.2510225457320224</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -10821,19 +10821,19 @@
         <v>10746</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7036</v>
+        <v>6967</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14636</v>
+        <v>14945</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3199185375231328</v>
+        <v>0.3199185375231329</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2094798116735147</v>
+        <v>0.2074294193797611</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4357388430841726</v>
+        <v>0.4449292204459091</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -10842,19 +10842,19 @@
         <v>14417</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9748</v>
+        <v>10128</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20069</v>
+        <v>19562</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2294893934163686</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.155157589073229</v>
+        <v>0.1612060982725178</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3194441917323694</v>
+        <v>0.3113806533298446</v>
       </c>
     </row>
     <row r="6">
@@ -10871,19 +10871,19 @@
         <v>22693</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18310</v>
+        <v>18191</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26264</v>
+        <v>25624</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7762548517210238</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6263388189968477</v>
+        <v>0.6222634558237823</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.898392121998513</v>
+        <v>0.8765276844548137</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>41</v>
@@ -10892,19 +10892,19 @@
         <v>20027</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16040</v>
+        <v>15944</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23780</v>
+        <v>24118</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5962315056197052</v>
+        <v>0.5962315056197051</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4775486070867998</v>
+        <v>0.4746869267410959</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7079636045048882</v>
+        <v>0.7180452979923131</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>72</v>
@@ -10913,19 +10913,19 @@
         <v>42721</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37079</v>
+        <v>36875</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>48484</v>
+        <v>48016</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6800034127164067</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5901998704656377</v>
+        <v>0.5869597410699796</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7717390990131086</v>
+        <v>0.7642960269156419</v>
       </c>
     </row>
     <row r="7">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5280</v>
+        <v>3754</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02573937036058475</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1806276839871404</v>
+        <v>0.1284224268333005</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3731</v>
+        <v>3870</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01197753618778396</v>
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05938336476688313</v>
+        <v>0.06160469422564142</v>
       </c>
     </row>
     <row r="8">
@@ -11080,19 +11080,19 @@
         <v>3762</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>995</v>
+        <v>936</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7598</v>
+        <v>7511</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2284441821030057</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06039306698688564</v>
+        <v>0.0568541224270883</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4613218327189878</v>
+        <v>0.4560492149577833</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -11101,19 +11101,19 @@
         <v>7344</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4132</v>
+        <v>4180</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11818</v>
+        <v>11608</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1254698396824909</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07059131931490999</v>
+        <v>0.07141715996259783</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2019036118826554</v>
+        <v>0.1983253587534337</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -11122,19 +11122,19 @@
         <v>11106</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6571</v>
+        <v>6775</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17072</v>
+        <v>17002</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1480829742418573</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08761854990268376</v>
+        <v>0.09033322522033072</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2276217900846576</v>
+        <v>0.2266901687763075</v>
       </c>
     </row>
     <row r="10">
@@ -11151,19 +11151,19 @@
         <v>2731</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6476</v>
+        <v>6431</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1657956567577008</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05444225353261191</v>
+        <v>0.05456567619699391</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3932103039817789</v>
+        <v>0.3904612331762765</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -11172,19 +11172,19 @@
         <v>9480</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5459</v>
+        <v>5497</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14415</v>
+        <v>14442</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1619648567204914</v>
+        <v>0.1619648567204915</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09326319380570701</v>
+        <v>0.09391479216469266</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2462853362022785</v>
+        <v>0.2467477364647543</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -11193,19 +11193,19 @@
         <v>12211</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7431</v>
+        <v>7639</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17880</v>
+        <v>17944</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1628060992540702</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09907894634478616</v>
+        <v>0.1018583426357287</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2383958072401965</v>
+        <v>0.2392464612480183</v>
       </c>
     </row>
     <row r="11">
@@ -11222,19 +11222,19 @@
         <v>9977</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6260</v>
+        <v>6263</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13667</v>
+        <v>13668</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6057601611392933</v>
+        <v>0.6057601611392934</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3801117863438801</v>
+        <v>0.3802386444748883</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8298371822599062</v>
+        <v>0.8298906252590164</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>65</v>
@@ -11243,19 +11243,19 @@
         <v>40484</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34802</v>
+        <v>34598</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45361</v>
+        <v>45777</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6916609845704772</v>
+        <v>0.6916609845704771</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5945949668146877</v>
+        <v>0.5911062251736156</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7749921715468723</v>
+        <v>0.7821060897903273</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>76</v>
@@ -11264,19 +11264,19 @@
         <v>50460</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>43275</v>
+        <v>43390</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>56698</v>
+        <v>56896</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6727971896352571</v>
+        <v>0.672797189635257</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5769926107165367</v>
+        <v>0.5785194659978651</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.755957825769991</v>
+        <v>0.7586025324137311</v>
       </c>
     </row>
     <row r="12">
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4252</v>
+        <v>4323</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0209043190265405</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07264843466401116</v>
+        <v>0.07386543125717956</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -11330,7 +11330,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4327</v>
+        <v>4451</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01631373686881547</v>
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05768813163635483</v>
+        <v>0.05935223454981137</v>
       </c>
     </row>
     <row r="13">
@@ -11431,19 +11431,19 @@
         <v>2527</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>611</v>
+        <v>818</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5845</v>
+        <v>5915</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1002030279372444</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02422165723502862</v>
+        <v>0.0324414502281788</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2317904421819135</v>
+        <v>0.2345524870266881</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -11452,19 +11452,19 @@
         <v>5575</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2936</v>
+        <v>3112</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9268</v>
+        <v>9355</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1249770214570912</v>
+        <v>0.1249770214570913</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06582486035882082</v>
+        <v>0.06975148246144568</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2077681850310406</v>
+        <v>0.2097010817515385</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -11473,19 +11473,19 @@
         <v>8102</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4686</v>
+        <v>4531</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12597</v>
+        <v>13109</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.116029917229213</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06711249603237346</v>
+        <v>0.0648830574890112</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1804117718363844</v>
+        <v>0.1877414803131517</v>
       </c>
     </row>
     <row r="15">
@@ -11502,19 +11502,19 @@
         <v>6435</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3333</v>
+        <v>3451</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10019</v>
+        <v>10026</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2551650539714551</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1321573297573393</v>
+        <v>0.1368596563606475</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3972797519112168</v>
+        <v>0.3975758243269877</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>23</v>
@@ -11523,19 +11523,19 @@
         <v>11637</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7613</v>
+        <v>7802</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>16214</v>
+        <v>16307</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2608611491140248</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1706620177415739</v>
+        <v>0.1748917525824664</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3634715274654253</v>
+        <v>0.3655621258700445</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>34</v>
@@ -11544,19 +11544,19 @@
         <v>18071</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>12925</v>
+        <v>13071</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>23537</v>
+        <v>23742</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2588040097637762</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1850986391173825</v>
+        <v>0.187188888995358</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3370870574550082</v>
+        <v>0.340020144374782</v>
       </c>
     </row>
     <row r="16">
@@ -11573,19 +11573,19 @@
         <v>13372</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9885</v>
+        <v>9865</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17115</v>
+        <v>17226</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5302440555487484</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3919981595473528</v>
+        <v>0.3912034263223558</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6786644835987533</v>
+        <v>0.6830858554924595</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -11594,19 +11594,19 @@
         <v>23995</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18519</v>
+        <v>18823</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28246</v>
+        <v>28342</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5378921732321078</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4151491924280442</v>
+        <v>0.4219443611034415</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6331924387723614</v>
+        <v>0.6353493051705912</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>71</v>
@@ -11615,19 +11615,19 @@
         <v>37366</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31489</v>
+        <v>31623</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44034</v>
+        <v>43611</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5351300627954003</v>
+        <v>0.5351300627954002</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4509690138436937</v>
+        <v>0.4528881365711415</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.630618460252262</v>
+        <v>0.6245696543770365</v>
       </c>
     </row>
     <row r="17">
@@ -11644,19 +11644,19 @@
         <v>2885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1073</v>
+        <v>1154</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5844</v>
+        <v>5956</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1143878625425521</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04254358263598471</v>
+        <v>0.04574845296193203</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2317292260549515</v>
+        <v>0.2361904058499398</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -11665,19 +11665,19 @@
         <v>3402</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1561</v>
+        <v>1604</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6698</v>
+        <v>6679</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0762696561967761</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03499829166806935</v>
+        <v>0.03596260119740326</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1501393953520566</v>
+        <v>0.1497306807156011</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -11686,19 +11686,19 @@
         <v>6287</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3527</v>
+        <v>3245</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10732</v>
+        <v>10694</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.09003601021161062</v>
+        <v>0.09003601021161059</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05050423030446171</v>
+        <v>0.04646601014305682</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1537018578050776</v>
+        <v>0.1531504411781857</v>
       </c>
     </row>
     <row r="18">
@@ -11790,19 +11790,19 @@
         <v>3303</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1196</v>
+        <v>1226</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6613</v>
+        <v>6754</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1859841973412165</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06736784946729278</v>
+        <v>0.06904036247844997</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3723879772866113</v>
+        <v>0.3803235315395654</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -11811,19 +11811,19 @@
         <v>6801</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3772</v>
+        <v>4000</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9930</v>
+        <v>9846</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1790381505413605</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09929824901473409</v>
+        <v>0.105292566038809</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2614069205804694</v>
+        <v>0.2591862537225873</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -11832,19 +11832,19 @@
         <v>10104</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6955</v>
+        <v>6690</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14637</v>
+        <v>14635</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1812509303024357</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1247631735922174</v>
+        <v>0.120007411844485</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2625642153149261</v>
+        <v>0.2625306601357519</v>
       </c>
     </row>
     <row r="20">
@@ -11861,19 +11861,19 @@
         <v>6540</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3606</v>
+        <v>3564</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9808</v>
+        <v>10156</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3682618173548143</v>
+        <v>0.3682618173548142</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2030761998684943</v>
+        <v>0.2006877973201331</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5522557518375004</v>
+        <v>0.5718742247628621</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -11882,19 +11882,19 @@
         <v>10429</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7343</v>
+        <v>7442</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14112</v>
+        <v>14335</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.274530824209965</v>
+        <v>0.2745308242099649</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.193296362017549</v>
+        <v>0.1959141024502531</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3714818186191868</v>
+        <v>0.3773524566092776</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>34</v>
@@ -11903,19 +11903,19 @@
         <v>16969</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12380</v>
+        <v>12516</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21870</v>
+        <v>22468</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3043904048595947</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2220727052578193</v>
+        <v>0.2245142328323994</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3923135318284794</v>
+        <v>0.4030425785977069</v>
       </c>
     </row>
     <row r="21">
@@ -11932,19 +11932,19 @@
         <v>7916</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5047</v>
+        <v>4714</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11291</v>
+        <v>11198</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4457539853039693</v>
+        <v>0.4457539853039692</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2841836219983652</v>
+        <v>0.2654633926200242</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6357939400085629</v>
+        <v>0.6305705042892517</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>46</v>
@@ -11953,19 +11953,19 @@
         <v>20327</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16248</v>
+        <v>16402</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>24557</v>
+        <v>23908</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5350775120385415</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4277084394464586</v>
+        <v>0.4317647707259058</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6464501312331646</v>
+        <v>0.6293595358483914</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>59</v>
@@ -11974,19 +11974,19 @@
         <v>28243</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>23143</v>
+        <v>23111</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>33757</v>
+        <v>34140</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.5066220037701232</v>
+        <v>0.5066220037701231</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4151473038924891</v>
+        <v>0.4145615616382179</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6055476076138823</v>
+        <v>0.612409658010611</v>
       </c>
     </row>
     <row r="22">
@@ -12028,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05761182110962163</v>
+        <v>0.05762551653720444</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -12040,16 +12040,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2227</v>
+        <v>2368</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.007736661067846435</v>
+        <v>0.007736661067846433</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03994457517474729</v>
+        <v>0.0424861453948007</v>
       </c>
     </row>
     <row r="23">
@@ -12144,7 +12144,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3115</v>
+        <v>3268</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1339688980707906</v>
@@ -12153,7 +12153,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.379936453720719</v>
+        <v>0.398607395965948</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -12162,19 +12162,19 @@
         <v>1632</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>395</v>
+        <v>518</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>3750</v>
+        <v>3830</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.09714123340490984</v>
+        <v>0.09714123340490986</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02351877290931375</v>
+        <v>0.03081146051016812</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2232037329202126</v>
+        <v>0.2279522889156273</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -12183,19 +12183,19 @@
         <v>2730</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5485</v>
+        <v>5501</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1092178723436616</v>
+        <v>0.1092178723436615</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04358895449179049</v>
+        <v>0.0438472843909803</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2194132714140189</v>
+        <v>0.220033073069849</v>
       </c>
     </row>
     <row r="25">
@@ -12212,19 +12212,19 @@
         <v>3043</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1471</v>
+        <v>1033</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5156</v>
+        <v>5077</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3711787916691635</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1794938662971489</v>
+        <v>0.1259729888607509</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6289923591419522</v>
+        <v>0.619239074847546</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -12233,19 +12233,19 @@
         <v>5571</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3375</v>
+        <v>3506</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7981</v>
+        <v>8413</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3315932270152067</v>
+        <v>0.3315932270152068</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2008839383699834</v>
+        <v>0.2086633389690749</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4750019509986205</v>
+        <v>0.5007660406113021</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -12254,19 +12254,19 @@
         <v>8614</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5964</v>
+        <v>5557</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11816</v>
+        <v>11600</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3445742448410628</v>
+        <v>0.3445742448410627</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2385603726064245</v>
+        <v>0.2222892774599396</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4726446198882508</v>
+        <v>0.4640345250139306</v>
       </c>
     </row>
     <row r="26">
@@ -12283,19 +12283,19 @@
         <v>4057</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6134</v>
+        <v>6137</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4948523102600461</v>
+        <v>0.494852310260046</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2461985666208642</v>
+        <v>0.2467279334742359</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.748202916831058</v>
+        <v>0.7485402063973708</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -12304,19 +12304,19 @@
         <v>8817</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6102</v>
+        <v>6243</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11289</v>
+        <v>11140</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5247698376449971</v>
+        <v>0.5247698376449972</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3632099266235748</v>
+        <v>0.3715711780097455</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6719023255238906</v>
+        <v>0.6630701131569603</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -12325,19 +12325,19 @@
         <v>12873</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9706</v>
+        <v>10034</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>16060</v>
+        <v>16173</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5149591917773813</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3882736488061646</v>
+        <v>0.4013572645454033</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6424251544532046</v>
+        <v>0.6469444051060049</v>
       </c>
     </row>
     <row r="27">
@@ -12370,16 +12370,16 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2698</v>
+        <v>2398</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.04649570193488619</v>
+        <v>0.0464957019348862</v>
       </c>
       <c r="O27" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1605900198656631</v>
+        <v>0.1427192837717816</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2</v>
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2784</v>
+        <v>2789</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03124869103789451</v>
@@ -12400,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1113686664767328</v>
+        <v>0.1115841215887064</v>
       </c>
     </row>
     <row r="28">
@@ -12492,19 +12492,19 @@
         <v>4117</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2071</v>
+        <v>2077</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6623</v>
+        <v>7013</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1699433248414256</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08547975017335768</v>
+        <v>0.08573124742351997</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2733902762252766</v>
+        <v>0.2894956556998661</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -12513,19 +12513,19 @@
         <v>3858</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1849</v>
+        <v>1934</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6537</v>
+        <v>6591</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1199959815334554</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05750845859929109</v>
+        <v>0.06017313768366107</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2033474570863488</v>
+        <v>0.2050083973508205</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>20</v>
@@ -12534,19 +12534,19 @@
         <v>7975</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4907</v>
+        <v>5107</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11806</v>
+        <v>11905</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1414602844954825</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08704619942197835</v>
+        <v>0.09058783533825433</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2094163125496889</v>
+        <v>0.2111778810945215</v>
       </c>
     </row>
     <row r="30">
@@ -12563,19 +12563,19 @@
         <v>3549</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1615</v>
+        <v>1831</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5797</v>
+        <v>6189</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1465156849741907</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06664565794556282</v>
+        <v>0.07556881258548474</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2393007235421252</v>
+        <v>0.2554624151440435</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>36</v>
@@ -12584,19 +12584,19 @@
         <v>12001</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9050</v>
+        <v>9040</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>15285</v>
+        <v>15551</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3732966737634255</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2815213536507777</v>
+        <v>0.2811963384905402</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4754519882309451</v>
+        <v>0.4837177901469303</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>45</v>
@@ -12605,19 +12605,19 @@
         <v>15550</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>11519</v>
+        <v>12059</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>19966</v>
+        <v>19684</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2758401219827534</v>
+        <v>0.2758401219827535</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2043327259666549</v>
+        <v>0.2139125364014438</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3541657743155818</v>
+        <v>0.3491715728355884</v>
       </c>
     </row>
     <row r="31">
@@ -12634,19 +12634,19 @@
         <v>15244</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12263</v>
+        <v>11440</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18234</v>
+        <v>17957</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.62922475189574</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5061900220587887</v>
+        <v>0.4722393279894666</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7526763278181798</v>
+        <v>0.7412303694200887</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>38</v>
@@ -12655,19 +12655,19 @@
         <v>13466</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10256</v>
+        <v>10269</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16832</v>
+        <v>17003</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.418874021730373</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3190246393069447</v>
+        <v>0.3194139602955922</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5235769622898222</v>
+        <v>0.528902418465398</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>72</v>
@@ -12676,19 +12676,19 @@
         <v>28710</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>24003</v>
+        <v>24608</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>34040</v>
+        <v>33487</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.5092698566542412</v>
+        <v>0.5092698566542413</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4257727975705879</v>
+        <v>0.4365161554626668</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6038227885731969</v>
+        <v>0.5940117820368946</v>
       </c>
     </row>
     <row r="32">
@@ -12705,19 +12705,19 @@
         <v>1316</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3290</v>
+        <v>3442</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05431623828864367</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.013647101533589</v>
+        <v>0.0137654370906388</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1357886904430373</v>
+        <v>0.1420819043558648</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -12726,19 +12726,19 @@
         <v>2824</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1173</v>
+        <v>1212</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5453</v>
+        <v>5320</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08783332297274608</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03650083757752477</v>
+        <v>0.03769580209237815</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1696088579042737</v>
+        <v>0.1654727720959351</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -12747,19 +12747,19 @@
         <v>4140</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2048</v>
+        <v>2034</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7239</v>
+        <v>7098</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.07342973686752291</v>
+        <v>0.0734297368675229</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03632007427083189</v>
+        <v>0.03607402127469179</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1284122332582748</v>
+        <v>0.125909316868879</v>
       </c>
     </row>
     <row r="33">
@@ -12854,16 +12854,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6669</v>
+        <v>6561</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.06692763812477029</v>
+        <v>0.0669276381247703</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2332491570804977</v>
+        <v>0.2294654277473661</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>12</v>
@@ -12872,19 +12872,19 @@
         <v>9727</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5448</v>
+        <v>5374</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16904</v>
+        <v>15916</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1490334250973951</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08347200107536491</v>
+        <v>0.0823429488102622</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2589955084596899</v>
+        <v>0.2438470487974738</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>14</v>
@@ -12893,19 +12893,19 @@
         <v>11641</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6732</v>
+        <v>6417</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>18516</v>
+        <v>18846</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1240223744782908</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07172411815536893</v>
+        <v>0.06837165379102438</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1972674197765553</v>
+        <v>0.2007812920226144</v>
       </c>
     </row>
     <row r="35">
@@ -12922,19 +12922,19 @@
         <v>5090</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1842</v>
+        <v>1768</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10414</v>
+        <v>10392</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1780219046692746</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06443835839654949</v>
+        <v>0.06183455546546966</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3642434033910863</v>
+        <v>0.3634443991076129</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>23</v>
@@ -12943,19 +12943,19 @@
         <v>16060</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>10807</v>
+        <v>10994</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>22571</v>
+        <v>22470</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2460650365570726</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.165572812073946</v>
+        <v>0.1684423133346935</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3458202067167493</v>
+        <v>0.3442625017996555</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>28</v>
@@ -12964,19 +12964,19 @@
         <v>21150</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>14894</v>
+        <v>14831</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>29333</v>
+        <v>28910</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2253377494963504</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1586828967832259</v>
+        <v>0.1580069872996456</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3125191124370135</v>
+        <v>0.3080115283873093</v>
       </c>
     </row>
     <row r="36">
@@ -12993,19 +12993,19 @@
         <v>18820</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13378</v>
+        <v>13086</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23854</v>
+        <v>23367</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6582312149274582</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4679036277088954</v>
+        <v>0.4576890788681765</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8343044874562109</v>
+        <v>0.8172395958699485</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>52</v>
@@ -13014,19 +13014,19 @@
         <v>34841</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>28253</v>
+        <v>27199</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>41486</v>
+        <v>40886</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.5337990519923382</v>
+        <v>0.5337990519923381</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4328769782320869</v>
+        <v>0.4167163252488943</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6356090888942525</v>
+        <v>0.6264160565439687</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>72</v>
@@ -13035,19 +13035,19 @@
         <v>53661</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>45417</v>
+        <v>45204</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>61883</v>
+        <v>61710</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5717035559325122</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4838697725198013</v>
+        <v>0.4816074060629477</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6593005100189113</v>
+        <v>0.6574570837271126</v>
       </c>
     </row>
     <row r="37">
@@ -13064,19 +13064,19 @@
         <v>2768</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>329</v>
+        <v>890</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>7283</v>
+        <v>7085</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.09681924227849674</v>
+        <v>0.09681924227849675</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01151573389652946</v>
+        <v>0.03113712190588908</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2547233723706567</v>
+        <v>0.247793800239184</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>7</v>
@@ -13085,19 +13085,19 @@
         <v>4641</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1962</v>
+        <v>2001</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8850</v>
+        <v>8945</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07110248635319401</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0300613483674207</v>
+        <v>0.03065816115074478</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1355919935618375</v>
+        <v>0.1370494766537827</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>10</v>
@@ -13106,19 +13106,19 @@
         <v>7409</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3826</v>
+        <v>3729</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>12884</v>
+        <v>13173</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0789363200928469</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04075875003095313</v>
+        <v>0.03972917201085669</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1372681968984759</v>
+        <v>0.1403436441664394</v>
       </c>
     </row>
     <row r="38">
@@ -13210,19 +13210,19 @@
         <v>2725</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>6176</v>
+        <v>6064</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1402978590124629</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03548811000621889</v>
+        <v>0.03520888657493382</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3179447022598047</v>
+        <v>0.3121856855786567</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>20</v>
@@ -13231,19 +13231,19 @@
         <v>13700</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>8616</v>
+        <v>9020</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>20326</v>
+        <v>20110</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.2005560201934209</v>
+        <v>0.2005560201934208</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1261327089566423</v>
+        <v>0.13204372491079</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.297569397373541</v>
+        <v>0.294404886019023</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>24</v>
@@ -13252,19 +13252,19 @@
         <v>16425</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>10718</v>
+        <v>11083</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>22877</v>
+        <v>23030</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1872145244566326</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.122168879444502</v>
+        <v>0.1263241424366768</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2607566249213785</v>
+        <v>0.2625060169958476</v>
       </c>
     </row>
     <row r="40">
@@ -13281,19 +13281,19 @@
         <v>2023</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5510</v>
+        <v>4799</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1041437624978317</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03351758581199829</v>
+        <v>0.0328909835305965</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2836529445923296</v>
+        <v>0.2470867696722099</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>18</v>
@@ -13302,19 +13302,19 @@
         <v>12277</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>7483</v>
+        <v>7651</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>17997</v>
+        <v>18353</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1797299193930011</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1095466156362963</v>
+        <v>0.112011616469787</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2634722233792984</v>
+        <v>0.2686803220542984</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>21</v>
@@ -13323,19 +13323,19 @@
         <v>14300</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>9389</v>
+        <v>9257</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>20627</v>
+        <v>21012</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1629947192107594</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1070186498261933</v>
+        <v>0.1055184246609638</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.235115651355939</v>
+        <v>0.239497326431545</v>
       </c>
     </row>
     <row r="41">
@@ -13352,19 +13352,19 @@
         <v>13312</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>9436</v>
+        <v>10008</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>16105</v>
+        <v>16718</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.6853547181968386</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.4857939064611581</v>
+        <v>0.5152412080320108</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.8291270595796099</v>
+        <v>0.8606693479176356</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>63</v>
@@ -13373,19 +13373,19 @@
         <v>39303</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>32199</v>
+        <v>32356</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>45282</v>
+        <v>45565</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.5753726776176138</v>
+        <v>0.5753726776176137</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4713837764400612</v>
+        <v>0.4736711191731118</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.6629031627345598</v>
+        <v>0.6670591147651643</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>82</v>
@@ -13394,19 +13394,19 @@
         <v>52615</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>45456</v>
+        <v>44753</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>60045</v>
+        <v>59816</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.5997233198667949</v>
+        <v>0.5997233198667951</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.5181216182236102</v>
+        <v>0.5101048552200406</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.6844141997211685</v>
+        <v>0.6818085261922315</v>
       </c>
     </row>
     <row r="42">
@@ -13426,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4747</v>
+        <v>4177</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.07020366029286687</v>
@@ -13435,7 +13435,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2444072681171222</v>
+        <v>0.2150648172612084</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>5</v>
@@ -13444,19 +13444,19 @@
         <v>3029</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1173</v>
+        <v>1186</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>6620</v>
+        <v>6665</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.04434138279596428</v>
+        <v>0.04434138279596427</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01717021195240218</v>
+        <v>0.01736340193009614</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09691084177160361</v>
+        <v>0.09756694533627612</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>7</v>
@@ -13465,19 +13465,19 @@
         <v>4393</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1787</v>
+        <v>1859</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>8383</v>
+        <v>8449</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.05006743646581302</v>
+        <v>0.05006743646581303</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02037156978992461</v>
+        <v>0.02118963028396745</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.09555222742472091</v>
+        <v>0.09630207816446375</v>
       </c>
     </row>
     <row r="43">
@@ -13569,19 +13569,19 @@
         <v>21563</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>14983</v>
+        <v>15821</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>28775</v>
+        <v>30304</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1275028017020249</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.08859086403309308</v>
+        <v>0.09354572472170133</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1701439127768272</v>
+        <v>0.1791881398021701</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>90</v>
@@ -13590,19 +13590,19 @@
         <v>51453</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>41916</v>
+        <v>41691</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>62310</v>
+        <v>62659</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1440286304438911</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1173314740693719</v>
+        <v>0.1167036422220915</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1744193295212894</v>
+        <v>0.1753969778019058</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>124</v>
@@ -13611,19 +13611,19 @@
         <v>73016</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>61041</v>
+        <v>59776</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>86075</v>
+        <v>86439</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.13871885921596</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1159673362710826</v>
+        <v>0.1135649712289881</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1635287314724315</v>
+        <v>0.1642187493004936</v>
       </c>
     </row>
     <row r="45">
@@ -13640,19 +13640,19 @@
         <v>33082</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>24872</v>
+        <v>24500</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>42225</v>
+        <v>41809</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.1956116509665345</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1470675045997717</v>
+        <v>0.1448653172078644</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2496744169218368</v>
+        <v>0.2472122911599753</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>175</v>
@@ -13661,19 +13661,19 @@
         <v>88200</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>76414</v>
+        <v>76693</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>101067</v>
+        <v>100859</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.2468925463566983</v>
+        <v>0.2468925463566984</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.213901294982991</v>
+        <v>0.2146817951632129</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.2829110483328878</v>
+        <v>0.2823268518319227</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>226</v>
@@ -13682,19 +13682,19 @@
         <v>121282</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>107161</v>
+        <v>107565</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>137263</v>
+        <v>136124</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.230415924993957</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2035872456509057</v>
+        <v>0.2043553971818522</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2607769332397857</v>
+        <v>0.258613714344162</v>
       </c>
     </row>
     <row r="46">
@@ -13711,19 +13711,19 @@
         <v>105391</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>94877</v>
+        <v>95064</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>114630</v>
+        <v>116674</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.6231675778470883</v>
+        <v>0.6231675778470882</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.560998224385056</v>
+        <v>0.5621060991761219</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.6777992498118087</v>
+        <v>0.6898852576794872</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>375</v>
@@ -13732,19 +13732,19 @@
         <v>201256</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>186412</v>
+        <v>188330</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>215811</v>
+        <v>215480</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.5633630522328652</v>
+        <v>0.5633630522328654</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.5218102215275368</v>
+        <v>0.527180039328443</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.6041047738403126</v>
+        <v>0.6031786311864468</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>534</v>
@@ -13753,19 +13753,19 @@
         <v>306647</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>289236</v>
+        <v>288725</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>323897</v>
+        <v>324437</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.5825783275674087</v>
+        <v>0.5825783275674086</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.5494993115312721</v>
+        <v>0.5485301737413902</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.6153493360881783</v>
+        <v>0.6163758261343355</v>
       </c>
     </row>
     <row r="47">
@@ -13782,19 +13782,19 @@
         <v>9085</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>5064</v>
+        <v>4907</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>14478</v>
+        <v>14673</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.05371796948435244</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0299424149634934</v>
+        <v>0.02901691699966226</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.08560705232974312</v>
+        <v>0.08675985811115709</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>30</v>
@@ -13803,19 +13803,19 @@
         <v>16332</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>11511</v>
+        <v>10986</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>23461</v>
+        <v>23145</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.04571577096654536</v>
+        <v>0.04571577096654537</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0322207882020415</v>
+        <v>0.03075173194792116</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.06567140122014251</v>
+        <v>0.06478859836722661</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>44</v>
@@ -13824,19 +13824,19 @@
         <v>25416</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>18392</v>
+        <v>19081</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>34496</v>
+        <v>34181</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.04828688822267438</v>
+        <v>0.04828688822267437</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03494082235305049</v>
+        <v>0.03624994510954131</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.06553657826236772</v>
+        <v>0.06493848511532305</v>
       </c>
     </row>
     <row r="48">
